--- a/Code/Results/Cases/Case_6_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_2/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>21.67843575972723</v>
       </c>
       <c r="C2">
-        <v>11.85934468876984</v>
+        <v>11.85934468876973</v>
       </c>
       <c r="D2">
         <v>6.821959389543893</v>
       </c>
       <c r="E2">
-        <v>5.910169733361117</v>
+        <v>5.910169733360986</v>
       </c>
       <c r="F2">
-        <v>68.06986707037997</v>
+        <v>68.0698670703799</v>
       </c>
       <c r="G2">
-        <v>2.166224033440122</v>
+        <v>2.166224033439987</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.897236069583143</v>
+        <v>6.897236069583104</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.783472551359367</v>
+        <v>5.783472551359278</v>
       </c>
       <c r="M2">
-        <v>13.00067506246272</v>
+        <v>13.0006750624627</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.5838777555266</v>
+        <v>20.58387775552674</v>
       </c>
       <c r="C3">
-        <v>10.95711936149025</v>
+        <v>10.95711936149018</v>
       </c>
       <c r="D3">
-        <v>6.467388658321307</v>
+        <v>6.467388658321208</v>
       </c>
       <c r="E3">
-        <v>5.848555722303727</v>
+        <v>5.848555722303928</v>
       </c>
       <c r="F3">
-        <v>65.17368352755915</v>
+        <v>65.17368352755911</v>
       </c>
       <c r="G3">
-        <v>2.18066162056888</v>
+        <v>2.180661620569154</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.871876749063991</v>
+        <v>6.871876749064064</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.827258107237181</v>
+        <v>5.827258107237349</v>
       </c>
       <c r="M3">
-        <v>12.714044332936</v>
+        <v>12.7140443329362</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>19.91138375672071</v>
       </c>
       <c r="C4">
-        <v>10.37988950132615</v>
+        <v>10.3798895013261</v>
       </c>
       <c r="D4">
-        <v>6.244811895414706</v>
+        <v>6.244811895414844</v>
       </c>
       <c r="E4">
-        <v>5.811059733658898</v>
+        <v>5.811059733658965</v>
       </c>
       <c r="F4">
-        <v>63.38004197988547</v>
+        <v>63.38004197988555</v>
       </c>
       <c r="G4">
-        <v>2.189678557897954</v>
+        <v>2.189678557898211</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.856951461768414</v>
+        <v>6.856951461768551</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.857885594165587</v>
+        <v>5.857885594165702</v>
       </c>
       <c r="M4">
-        <v>12.54948921010952</v>
+        <v>12.54948921010949</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.63749246192516</v>
+        <v>19.63749246192511</v>
       </c>
       <c r="C5">
-        <v>10.13864255353318</v>
+        <v>10.13864255353349</v>
       </c>
       <c r="D5">
-        <v>6.152902435883195</v>
+        <v>6.152902435883203</v>
       </c>
       <c r="E5">
-        <v>5.795837146879953</v>
+        <v>5.795837146880223</v>
       </c>
       <c r="F5">
-        <v>62.64555394240261</v>
+        <v>62.64555394240262</v>
       </c>
       <c r="G5">
-        <v>2.193396193766468</v>
+        <v>2.193396193766602</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.851012748883516</v>
+        <v>6.851012748883554</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.871280295349314</v>
+        <v>5.871280295349308</v>
       </c>
       <c r="M5">
-        <v>12.4852685699245</v>
+        <v>12.48526856992445</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -615,16 +615,16 @@
         <v>10.09821541825426</v>
       </c>
       <c r="D6">
-        <v>6.137568845026204</v>
+        <v>6.137568845026161</v>
       </c>
       <c r="E6">
-        <v>5.793312178159819</v>
+        <v>5.79331217815962</v>
       </c>
       <c r="F6">
-        <v>62.52338882969903</v>
+        <v>62.52338882969899</v>
       </c>
       <c r="G6">
-        <v>2.194016245253319</v>
+        <v>2.194016245253193</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.850034777480188</v>
+        <v>6.850034777480031</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.873558909187723</v>
+        <v>5.873558909187694</v>
       </c>
       <c r="M6">
-        <v>12.47477499755317</v>
+        <v>12.47477499755311</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.907688930017</v>
+        <v>19.90768893001709</v>
       </c>
       <c r="C7">
-        <v>10.37666055124435</v>
+        <v>10.37666055124423</v>
       </c>
       <c r="D7">
-        <v>6.2435772264995</v>
+        <v>6.243577226499547</v>
       </c>
       <c r="E7">
-        <v>5.810854237885749</v>
+        <v>5.810854237885614</v>
       </c>
       <c r="F7">
-        <v>63.37015035503578</v>
+        <v>63.370150355036</v>
       </c>
       <c r="G7">
-        <v>2.189728514355959</v>
+        <v>2.189728514355954</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.856870812948134</v>
+        <v>6.856870812948111</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.858062574448527</v>
+        <v>5.858062574448494</v>
       </c>
       <c r="M7">
-        <v>12.54861167231272</v>
+        <v>12.54861167231278</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.30125573837259</v>
+        <v>21.30125573837251</v>
       </c>
       <c r="C8">
-        <v>11.55297404113791</v>
+        <v>11.55297404113794</v>
       </c>
       <c r="D8">
-        <v>6.70071812340207</v>
+        <v>6.700718123402106</v>
       </c>
       <c r="E8">
-        <v>5.888838412143775</v>
+        <v>5.888838412143908</v>
       </c>
       <c r="F8">
-        <v>67.07459082611845</v>
+        <v>67.07459082611864</v>
       </c>
       <c r="G8">
-        <v>2.171173622593109</v>
+        <v>2.171173622592971</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.88834629210417</v>
+        <v>6.888346292104157</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.797775607847155</v>
+        <v>5.797775607847098</v>
       </c>
       <c r="M8">
-        <v>12.89944655904835</v>
+        <v>12.89944655904825</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02337390321879</v>
+        <v>24.02337390321883</v>
       </c>
       <c r="C9">
-        <v>13.68424209046856</v>
+        <v>13.68424209046846</v>
       </c>
       <c r="D9">
-        <v>7.558845593494146</v>
+        <v>7.558845593494193</v>
       </c>
       <c r="E9">
-        <v>6.045830434374104</v>
+        <v>6.045830434374039</v>
       </c>
       <c r="F9">
-        <v>74.21183509127739</v>
+        <v>74.21183509127755</v>
       </c>
       <c r="G9">
-        <v>2.135745553228952</v>
+        <v>2.135745553228968</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.956149682820866</v>
+        <v>6.956149682820807</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.710639727298618</v>
+        <v>5.710639727298606</v>
       </c>
       <c r="M9">
-        <v>13.68025890741534</v>
+        <v>13.68025890741533</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.0140751753887</v>
+        <v>26.01407517538871</v>
       </c>
       <c r="C10">
-        <v>15.15799351572343</v>
+        <v>15.15799351572334</v>
       </c>
       <c r="D10">
-        <v>8.167987345817723</v>
+        <v>8.167987345817798</v>
       </c>
       <c r="E10">
-        <v>6.165965201161259</v>
+        <v>6.165965201161325</v>
       </c>
       <c r="F10">
-        <v>79.38456854594621</v>
+        <v>79.38456854594689</v>
       </c>
       <c r="G10">
-        <v>2.109898790018915</v>
+        <v>2.109898790018681</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.011210707901788</v>
+        <v>7.011210707901819</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.667774137770201</v>
+        <v>5.667774137770188</v>
       </c>
       <c r="M10">
-        <v>14.31437929010425</v>
+        <v>14.31437929010418</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.94284158671459</v>
+        <v>26.94284158671457</v>
       </c>
       <c r="C11">
-        <v>15.81251031840818</v>
+        <v>15.81251031840822</v>
       </c>
       <c r="D11">
-        <v>8.441400767847208</v>
+        <v>8.441400767847126</v>
       </c>
       <c r="E11">
-        <v>6.22230135711828</v>
+        <v>6.222301357118343</v>
       </c>
       <c r="F11">
-        <v>81.72803133051065</v>
+        <v>81.7280313305106</v>
       </c>
       <c r="G11">
-        <v>2.098071567926309</v>
+        <v>2.098071567926067</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.037813240267302</v>
+        <v>7.037813240267382</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.653449526718998</v>
+        <v>5.653449526718985</v>
       </c>
       <c r="M11">
-        <v>14.61726482161367</v>
+        <v>14.61726482161369</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.33000847316965</v>
+        <v>27.33000847316959</v>
       </c>
       <c r="C12">
-        <v>16.05848320081112</v>
+        <v>16.05848320081105</v>
       </c>
       <c r="D12">
-        <v>8.544518256458774</v>
+        <v>8.544518256458778</v>
       </c>
       <c r="E12">
-        <v>6.243943195023849</v>
+        <v>6.243943195023713</v>
       </c>
       <c r="F12">
-        <v>82.61484574559937</v>
+        <v>82.61484574559958</v>
       </c>
       <c r="G12">
-        <v>2.093572003299585</v>
+        <v>2.093572003299466</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.048152336081993</v>
+        <v>7.048152336081944</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.64882717260518</v>
+        <v>5.648827172605228</v>
       </c>
       <c r="M12">
-        <v>14.73418359424735</v>
+        <v>14.73418359424737</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.24670491600039</v>
+        <v>27.24670491600028</v>
       </c>
       <c r="C13">
-        <v>16.00558480290008</v>
+        <v>16.00558480290028</v>
       </c>
       <c r="D13">
-        <v>8.522326525998489</v>
+        <v>8.522326525998427</v>
       </c>
       <c r="E13">
-        <v>6.239267323257904</v>
+        <v>6.23926732325784</v>
       </c>
       <c r="F13">
-        <v>82.4238656804052</v>
+        <v>82.4238656804051</v>
       </c>
       <c r="G13">
-        <v>2.09454218623518</v>
+        <v>2.094542186235073</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.045913085170976</v>
+        <v>7.045913085170944</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.649785988018277</v>
+        <v>5.649785988018239</v>
       </c>
       <c r="M13">
         <v>14.70890132469044</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.9747307512699</v>
+        <v>26.97473075127001</v>
       </c>
       <c r="C14">
-        <v>15.83278170611695</v>
+        <v>15.83278170611726</v>
       </c>
       <c r="D14">
-        <v>8.449891929570819</v>
+        <v>8.449891929570983</v>
       </c>
       <c r="E14">
-        <v>6.224075235674341</v>
+        <v>6.224075235674408</v>
       </c>
       <c r="F14">
-        <v>81.80099667678333</v>
+        <v>81.80099667678392</v>
       </c>
       <c r="G14">
         <v>2.097701873045496</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.038658262196046</v>
+        <v>7.038658262196096</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.653052804481358</v>
+        <v>5.653052804481364</v>
       </c>
       <c r="M14">
-        <v>14.62683823791483</v>
+        <v>14.62683823791471</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.8078962181435</v>
+        <v>26.80789621814342</v>
       </c>
       <c r="C15">
-        <v>15.72670353096913</v>
+        <v>15.7267035309688</v>
       </c>
       <c r="D15">
         <v>8.405473060798101</v>
       </c>
       <c r="E15">
-        <v>6.21481200619736</v>
+        <v>6.214812006197028</v>
       </c>
       <c r="F15">
-        <v>81.41942090460728</v>
+        <v>81.41942090460745</v>
       </c>
       <c r="G15">
-        <v>2.099634201804773</v>
+        <v>2.099634201804778</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.03425038357675</v>
+        <v>7.034250383576635</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.655160147598069</v>
+        <v>5.655160147597982</v>
       </c>
       <c r="M15">
-        <v>14.5768668741349</v>
+        <v>14.57686687413493</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.95493211802471</v>
+        <v>25.95493211802474</v>
       </c>
       <c r="C16">
-        <v>15.11493263864612</v>
+        <v>15.11493263864602</v>
       </c>
       <c r="D16">
-        <v>8.150053782041805</v>
+        <v>8.150053782041864</v>
       </c>
       <c r="E16">
-        <v>6.162322799172912</v>
+        <v>6.162322799172914</v>
       </c>
       <c r="F16">
-        <v>79.23128417793299</v>
+        <v>79.23128417793301</v>
       </c>
       <c r="G16">
-        <v>2.110669442720591</v>
+        <v>2.110669442720306</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.009506864194752</v>
+        <v>7.009506864194777</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.668819171642115</v>
+        <v>5.668819171642138</v>
       </c>
       <c r="M16">
-        <v>14.29488691711786</v>
+        <v>14.29488691711783</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43659590560074</v>
+        <v>25.43659590560072</v>
       </c>
       <c r="C17">
-        <v>14.73582740886092</v>
+        <v>14.73582740886106</v>
       </c>
       <c r="D17">
-        <v>7.99248762747144</v>
+        <v>7.992487627471434</v>
       </c>
       <c r="E17">
-        <v>6.130597471310224</v>
+        <v>6.130597471310023</v>
       </c>
       <c r="F17">
-        <v>77.8869328835415</v>
+        <v>77.88693288354165</v>
       </c>
       <c r="G17">
-        <v>2.117414259983569</v>
+        <v>2.117414259983296</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.994753292047361</v>
+        <v>6.994753292047248</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.678562518523517</v>
+        <v>5.678562518523435</v>
       </c>
       <c r="M17">
-        <v>14.12568732018662</v>
+        <v>14.1256873201866</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.13840154200583</v>
+        <v>25.13840154200585</v>
       </c>
       <c r="C18">
-        <v>14.51625133591835</v>
+        <v>14.51625133591843</v>
       </c>
       <c r="D18">
-        <v>7.90150408477613</v>
+        <v>7.901504084776108</v>
       </c>
       <c r="E18">
-        <v>6.112504005191006</v>
+        <v>6.11250400519094</v>
       </c>
       <c r="F18">
-        <v>77.11272741491264</v>
+        <v>77.11272741491274</v>
       </c>
       <c r="G18">
-        <v>2.121287917522921</v>
+        <v>2.121287917523333</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.986410920382376</v>
+        <v>6.986410920382409</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.684649806615742</v>
+        <v>5.684649806615749</v>
       </c>
       <c r="M18">
-        <v>14.0297143390344</v>
+        <v>14.02971433903437</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>25.03742106761714</v>
       </c>
       <c r="C19">
-        <v>14.44163345671392</v>
+        <v>14.44163345671391</v>
       </c>
       <c r="D19">
-        <v>7.870634629959857</v>
+        <v>7.870634629959829</v>
       </c>
       <c r="E19">
-        <v>6.106402520524751</v>
+        <v>6.106402520524885</v>
       </c>
       <c r="F19">
-        <v>76.85040884821601</v>
+        <v>76.85040884821585</v>
       </c>
       <c r="G19">
-        <v>2.122598780031222</v>
+        <v>2.122598780031857</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.983609823811871</v>
+        <v>6.983609823811864</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.686792219344082</v>
+        <v>5.686792219344128</v>
       </c>
       <c r="M19">
-        <v>13.99744690833138</v>
+        <v>13.99744690833137</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.49177837056639</v>
+        <v>25.4917783705664</v>
       </c>
       <c r="C20">
-        <v>14.77633888295971</v>
+        <v>14.77633888295965</v>
       </c>
       <c r="D20">
-        <v>8.00929691146726</v>
+        <v>8.009296911467409</v>
       </c>
       <c r="E20">
-        <v>6.133958298327934</v>
+        <v>6.133958298328001</v>
       </c>
       <c r="F20">
-        <v>78.03013701687173</v>
+        <v>78.03013701687233</v>
       </c>
       <c r="G20">
-        <v>2.116696934084427</v>
+        <v>2.11669693408391</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.996308704420001</v>
+        <v>6.996308704420054</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.677474924599268</v>
+        <v>5.677474924599251</v>
       </c>
       <c r="M20">
-        <v>14.1435586470436</v>
+        <v>14.14355864704356</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.05466576284967</v>
+        <v>27.05466576284959</v>
       </c>
       <c r="C21">
-        <v>15.88358553186054</v>
+        <v>15.88358553186044</v>
       </c>
       <c r="D21">
-        <v>8.471178021896375</v>
+        <v>8.471178021896355</v>
       </c>
       <c r="E21">
-        <v>6.228528555095823</v>
+        <v>6.228528555095825</v>
       </c>
       <c r="F21">
-        <v>81.98395711818939</v>
+        <v>81.98395711818911</v>
       </c>
       <c r="G21">
-        <v>2.096774458523616</v>
+        <v>2.096774458523741</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.04078161102292</v>
+        <v>7.040781611022968</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.652070987201542</v>
+        <v>5.652070987201569</v>
       </c>
       <c r="M21">
-        <v>14.65088041910995</v>
+        <v>14.65088041910996</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.17844601504857</v>
+        <v>28.17844601504869</v>
       </c>
       <c r="C22">
-        <v>16.59653128963388</v>
+        <v>16.5965312896341</v>
       </c>
       <c r="D22">
-        <v>8.770682681980896</v>
+        <v>8.770682681980926</v>
       </c>
       <c r="E22">
-        <v>6.292174796092133</v>
+        <v>6.292174796092069</v>
       </c>
       <c r="F22">
-        <v>84.565067195578</v>
+        <v>84.56506719557841</v>
       </c>
       <c r="G22">
-        <v>2.083625913002148</v>
+        <v>2.08362591300213</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.071418512133482</v>
+        <v>7.07141851213344</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.640176851583553</v>
+        <v>5.640176851583401</v>
       </c>
       <c r="M22">
-        <v>14.99550432362882</v>
+        <v>14.99550432362874</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.57951680440643</v>
+        <v>27.57951680440649</v>
       </c>
       <c r="C23">
-        <v>16.21684353669866</v>
+        <v>16.2168435366985</v>
       </c>
       <c r="D23">
-        <v>8.611001664578243</v>
+        <v>8.611001664578177</v>
       </c>
       <c r="E23">
-        <v>6.258011959947045</v>
+        <v>6.258011959946976</v>
       </c>
       <c r="F23">
-        <v>83.18741257220249</v>
+        <v>83.18741257220236</v>
       </c>
       <c r="G23">
-        <v>2.09065937048819</v>
+        <v>2.090659370487949</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.054907482799837</v>
+        <v>7.054907482799699</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.646072537471881</v>
+        <v>5.646072537471836</v>
       </c>
       <c r="M23">
-        <v>14.81031523810896</v>
+        <v>14.81031523810891</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.46683100814584</v>
+        <v>25.46683100814588</v>
       </c>
       <c r="C24">
-        <v>14.75802873183651</v>
+        <v>14.75802873183649</v>
       </c>
       <c r="D24">
-        <v>8.001698677655487</v>
+        <v>8.001698677655462</v>
       </c>
       <c r="E24">
-        <v>6.132438418926373</v>
+        <v>6.132438418926509</v>
       </c>
       <c r="F24">
-        <v>77.96539859483737</v>
+        <v>77.96539859483678</v>
       </c>
       <c r="G24">
-        <v>2.117021248877011</v>
+        <v>2.117021248876877</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.995605070534483</v>
+        <v>6.995605070534526</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.677965117216822</v>
+        <v>5.677965117216923</v>
       </c>
       <c r="M24">
-        <v>14.13547497497517</v>
+        <v>14.13547497497521</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.28875753564735</v>
+        <v>23.28875753564737</v>
       </c>
       <c r="C25">
-        <v>13.12506345513268</v>
+        <v>13.12506345513275</v>
       </c>
       <c r="D25">
-        <v>7.330674266952652</v>
+        <v>7.3306742669527</v>
       </c>
       <c r="E25">
-        <v>6.002708042370446</v>
+        <v>6.002708042370314</v>
       </c>
       <c r="F25">
-        <v>72.29466283662885</v>
+        <v>72.29466283662899</v>
       </c>
       <c r="G25">
-        <v>2.145265294231463</v>
+        <v>2.145265294230959</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.937010182466062</v>
+        <v>6.937010182466066</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.73067420200917</v>
+        <v>5.730674202009169</v>
       </c>
       <c r="M25">
-        <v>13.45875232727576</v>
+        <v>13.45875232727575</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.67843575972723</v>
+        <v>21.02665437152293</v>
       </c>
       <c r="C2">
-        <v>11.85934468876973</v>
+        <v>13.60430681858705</v>
       </c>
       <c r="D2">
-        <v>6.821959389543893</v>
+        <v>3.707899431427749</v>
       </c>
       <c r="E2">
-        <v>5.910169733360986</v>
+        <v>7.03404567390679</v>
       </c>
       <c r="F2">
-        <v>68.0698670703799</v>
+        <v>28.15276331169871</v>
       </c>
       <c r="G2">
-        <v>2.166224033439987</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>36.8036702298956</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.805330281596173</v>
       </c>
       <c r="J2">
-        <v>6.897236069583104</v>
+        <v>12.26316722396843</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.0254391063922</v>
       </c>
       <c r="L2">
-        <v>5.783472551359278</v>
+        <v>6.067787139640137</v>
       </c>
       <c r="M2">
-        <v>13.0006750624627</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.954251764411584</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.17974288075606</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.58387775552674</v>
+        <v>19.67798748931206</v>
       </c>
       <c r="C3">
-        <v>10.95711936149018</v>
+        <v>12.74992209201068</v>
       </c>
       <c r="D3">
-        <v>6.467388658321208</v>
+        <v>3.683939684398832</v>
       </c>
       <c r="E3">
-        <v>5.848555722303928</v>
+        <v>7.068985343076702</v>
       </c>
       <c r="F3">
-        <v>65.17368352755911</v>
+        <v>27.79143017622711</v>
       </c>
       <c r="G3">
-        <v>2.180661620569154</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>36.04946854377282</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.059586865224621</v>
       </c>
       <c r="J3">
-        <v>6.871876749064064</v>
+        <v>12.23431503489021</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.10411845106568</v>
       </c>
       <c r="L3">
-        <v>5.827258107237349</v>
+        <v>6.094974367382157</v>
       </c>
       <c r="M3">
-        <v>12.7140443329362</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.863756133689793</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.59881452595909</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.91138375672071</v>
+        <v>18.80422398493827</v>
       </c>
       <c r="C4">
-        <v>10.3798895013261</v>
+        <v>12.20048198285314</v>
       </c>
       <c r="D4">
-        <v>6.244811895414844</v>
+        <v>3.670450538444518</v>
       </c>
       <c r="E4">
-        <v>5.811059733658965</v>
+        <v>7.091335379994606</v>
       </c>
       <c r="F4">
-        <v>63.38004197988555</v>
+        <v>27.58288284148913</v>
       </c>
       <c r="G4">
-        <v>2.189678557898211</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>35.60135163509056</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.221316206636807</v>
       </c>
       <c r="J4">
-        <v>6.856951461768551</v>
+        <v>12.22224673707179</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.160416667021</v>
       </c>
       <c r="L4">
-        <v>5.857885594165702</v>
+        <v>6.112099731133315</v>
       </c>
       <c r="M4">
-        <v>12.54948921010949</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.811448901444321</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.23217662299031</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.63749246192511</v>
+        <v>18.43647886185627</v>
       </c>
       <c r="C5">
-        <v>10.13864255353349</v>
+        <v>11.97916165914069</v>
       </c>
       <c r="D5">
-        <v>6.152902435883203</v>
+        <v>3.666432560302797</v>
       </c>
       <c r="E5">
-        <v>5.795837146880223</v>
+        <v>7.10042775244286</v>
       </c>
       <c r="F5">
-        <v>62.64555394240262</v>
+        <v>27.48673012668659</v>
       </c>
       <c r="G5">
-        <v>2.193396193766602</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>35.39641920210107</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.29116932108333</v>
       </c>
       <c r="J5">
-        <v>6.851012748883554</v>
+        <v>12.21382119898404</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.17529068354609</v>
       </c>
       <c r="L5">
-        <v>5.871280295349308</v>
+        <v>6.119041727179193</v>
       </c>
       <c r="M5">
-        <v>12.48526856992445</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.792586538643362</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.08184443874206</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.59203156298483</v>
+        <v>18.37441931370641</v>
       </c>
       <c r="C6">
-        <v>10.09821541825426</v>
+        <v>11.9528365055541</v>
       </c>
       <c r="D6">
-        <v>6.137568845026161</v>
+        <v>3.667223644571379</v>
       </c>
       <c r="E6">
-        <v>5.79331217815962</v>
+        <v>7.101657458110192</v>
       </c>
       <c r="F6">
-        <v>62.52338882969899</v>
+        <v>27.4532551322317</v>
       </c>
       <c r="G6">
-        <v>2.194016245253193</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>35.33063558873899</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.306053185526562</v>
       </c>
       <c r="J6">
-        <v>6.850034777480031</v>
+        <v>12.20653763766416</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.16567257712095</v>
       </c>
       <c r="L6">
-        <v>5.873558909187694</v>
+        <v>6.12002360207781</v>
       </c>
       <c r="M6">
-        <v>12.47477499755311</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.791496496192654</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.05844604048843</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.90768893001709</v>
+        <v>18.79845858749128</v>
       </c>
       <c r="C7">
-        <v>10.37666055124423</v>
+        <v>12.22636408288155</v>
       </c>
       <c r="D7">
-        <v>6.243577226499547</v>
+        <v>3.674300079518352</v>
       </c>
       <c r="E7">
-        <v>5.810854237885614</v>
+        <v>7.090668761070162</v>
       </c>
       <c r="F7">
-        <v>63.370150355036</v>
+        <v>27.53342171752151</v>
       </c>
       <c r="G7">
-        <v>2.189728514355954</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>35.51177237331486</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.230750432676933</v>
       </c>
       <c r="J7">
-        <v>6.856870812948111</v>
+        <v>12.20586327740845</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.12728319264348</v>
       </c>
       <c r="L7">
-        <v>5.858062574448494</v>
+        <v>6.111731220571953</v>
       </c>
       <c r="M7">
-        <v>12.54861167231278</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.816598365492782</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.2346977596373</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.30125573837251</v>
+        <v>20.56997148002228</v>
       </c>
       <c r="C8">
-        <v>11.55297404113794</v>
+        <v>13.35026429992369</v>
       </c>
       <c r="D8">
-        <v>6.700718123402106</v>
+        <v>3.704443345352529</v>
       </c>
       <c r="E8">
-        <v>5.888838412143908</v>
+        <v>7.044921274916274</v>
       </c>
       <c r="F8">
-        <v>67.07459082611864</v>
+        <v>27.96279079558591</v>
       </c>
       <c r="G8">
-        <v>2.171173622592971</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>36.42861189817981</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.902780532179918</v>
       </c>
       <c r="J8">
-        <v>6.888346292104157</v>
+        <v>12.23066192093832</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.00681939015805</v>
       </c>
       <c r="L8">
-        <v>5.797775607847098</v>
+        <v>6.076563866188433</v>
       </c>
       <c r="M8">
-        <v>12.89944655904825</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.929382034668754</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.9871898569866</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02337390321883</v>
+        <v>23.68195847305933</v>
       </c>
       <c r="C9">
-        <v>13.68424209046846</v>
+        <v>15.31150848919706</v>
       </c>
       <c r="D9">
-        <v>7.558845593494193</v>
+        <v>3.766602636801698</v>
       </c>
       <c r="E9">
-        <v>6.045830434374039</v>
+        <v>6.963651398129278</v>
       </c>
       <c r="F9">
-        <v>74.21183509127755</v>
+        <v>28.99599153534739</v>
       </c>
       <c r="G9">
-        <v>2.135745553228968</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>38.49208748809166</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.288901426193409</v>
       </c>
       <c r="J9">
-        <v>6.956149682820807</v>
+        <v>12.35511782912775</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.89784584777537</v>
       </c>
       <c r="L9">
-        <v>5.710639727298606</v>
+        <v>6.011604386336066</v>
       </c>
       <c r="M9">
-        <v>13.68025890741533</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.166619752189113</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.36968408153254</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.01407517538871</v>
+        <v>25.8025808963714</v>
       </c>
       <c r="C10">
-        <v>15.15799351572334</v>
+        <v>16.64590420405164</v>
       </c>
       <c r="D10">
-        <v>8.167987345817798</v>
+        <v>3.820303201288487</v>
       </c>
       <c r="E10">
-        <v>6.165965201161325</v>
+        <v>6.908007677277006</v>
       </c>
       <c r="F10">
-        <v>79.38456854594689</v>
+        <v>29.79937221092437</v>
       </c>
       <c r="G10">
-        <v>2.109898790018681</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>40.03444828624695</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.868322007565921</v>
       </c>
       <c r="J10">
-        <v>7.011210707901819</v>
+        <v>12.47039400365318</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.84892508824919</v>
       </c>
       <c r="L10">
-        <v>5.667774137770188</v>
+        <v>5.965726347260484</v>
       </c>
       <c r="M10">
-        <v>14.31437929010418</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.358406082636517</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.32737376393729</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.94284158671457</v>
+        <v>26.71981021420669</v>
       </c>
       <c r="C11">
-        <v>15.81251031840822</v>
+        <v>17.26209024910892</v>
       </c>
       <c r="D11">
-        <v>8.441400767847126</v>
+        <v>3.851994713617431</v>
       </c>
       <c r="E11">
-        <v>6.222301357118343</v>
+        <v>6.882635035776286</v>
       </c>
       <c r="F11">
-        <v>81.7280313305106</v>
+        <v>30.10865174179517</v>
       </c>
       <c r="G11">
-        <v>2.098071567926067</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>40.62687948940296</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.699743607383409</v>
       </c>
       <c r="J11">
-        <v>7.037813240267382</v>
+        <v>12.50501456258651</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.78467522744093</v>
       </c>
       <c r="L11">
-        <v>5.653449526718985</v>
+        <v>5.94500063047255</v>
       </c>
       <c r="M11">
-        <v>14.61726482161369</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.456709104829219</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.75425318818889</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.33000847316959</v>
+        <v>27.06091326901988</v>
       </c>
       <c r="C12">
-        <v>16.05848320081105</v>
+        <v>17.47284292069639</v>
       </c>
       <c r="D12">
-        <v>8.544518256458778</v>
+        <v>3.861045737300663</v>
       </c>
       <c r="E12">
-        <v>6.243943195023713</v>
+        <v>6.873729930672592</v>
       </c>
       <c r="F12">
-        <v>82.61484574559958</v>
+        <v>30.2662988765651</v>
       </c>
       <c r="G12">
-        <v>2.093572003299466</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>40.91987619462846</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.628155174565287</v>
       </c>
       <c r="J12">
-        <v>7.048152336081944</v>
+        <v>12.53285513187165</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.79082600602828</v>
       </c>
       <c r="L12">
-        <v>5.648827172605228</v>
+        <v>5.937379458706618</v>
       </c>
       <c r="M12">
-        <v>14.73418359424737</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.490086592425118</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.91082349394909</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.24670491600028</v>
+        <v>26.98799972896234</v>
       </c>
       <c r="C13">
-        <v>16.00558480290028</v>
+        <v>17.42389736321727</v>
       </c>
       <c r="D13">
-        <v>8.522326525998427</v>
+        <v>3.858457116074394</v>
       </c>
       <c r="E13">
-        <v>6.23926732325784</v>
+        <v>6.875752311368104</v>
       </c>
       <c r="F13">
-        <v>82.4238656804051</v>
+        <v>30.23986904482912</v>
       </c>
       <c r="G13">
-        <v>2.094542186235073</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>40.86988244430738</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.641647655707986</v>
       </c>
       <c r="J13">
-        <v>7.045913085170944</v>
+        <v>12.52952368897101</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.79516836662268</v>
       </c>
       <c r="L13">
-        <v>5.649785988018239</v>
+        <v>5.939047711579355</v>
       </c>
       <c r="M13">
-        <v>14.70890132469044</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.48202728834106</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.87661838036957</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.97473075127001</v>
+        <v>26.74811512009785</v>
       </c>
       <c r="C14">
-        <v>15.83278170611726</v>
+        <v>17.27790986113073</v>
       </c>
       <c r="D14">
-        <v>8.449891929570983</v>
+        <v>3.852466791240863</v>
       </c>
       <c r="E14">
-        <v>6.224075235674408</v>
+        <v>6.881946851627609</v>
       </c>
       <c r="F14">
-        <v>81.80099667678392</v>
+        <v>30.12482621075518</v>
       </c>
       <c r="G14">
-        <v>2.097701873045496</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>40.65657800453339</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.693036978567937</v>
       </c>
       <c r="J14">
-        <v>7.038658262196096</v>
+        <v>12.50843767682655</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.78758776447158</v>
       </c>
       <c r="L14">
-        <v>5.653052804481364</v>
+        <v>5.94438539493385</v>
       </c>
       <c r="M14">
-        <v>14.62683823791471</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.459083327417794</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.76692859521575</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.80789621814342</v>
+        <v>26.59978053143651</v>
       </c>
       <c r="C15">
-        <v>15.7267035309688</v>
+        <v>17.19545493242884</v>
       </c>
       <c r="D15">
-        <v>8.405473060798101</v>
+        <v>3.850072380165321</v>
       </c>
       <c r="E15">
-        <v>6.214812006197028</v>
+        <v>6.885539582349476</v>
       </c>
       <c r="F15">
-        <v>81.41942090460745</v>
+        <v>30.03953279817216</v>
       </c>
       <c r="G15">
-        <v>2.099634201804778</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>40.49994376736167</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.728363782987126</v>
       </c>
       <c r="J15">
-        <v>7.034250383576635</v>
+        <v>12.49030601238946</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.77185589921944</v>
       </c>
       <c r="L15">
-        <v>5.655160147597982</v>
+        <v>5.947600923767193</v>
       </c>
       <c r="M15">
-        <v>14.57686687413493</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.446775036354494</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.70062476576677</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.95493211802474</v>
+        <v>25.73782532227877</v>
       </c>
       <c r="C16">
-        <v>15.11493263864602</v>
+        <v>16.66913573181946</v>
       </c>
       <c r="D16">
-        <v>8.150053782041864</v>
+        <v>3.828828110384662</v>
       </c>
       <c r="E16">
-        <v>6.162322799172914</v>
+        <v>6.907801655598209</v>
       </c>
       <c r="F16">
-        <v>79.23128417793301</v>
+        <v>29.65089165960702</v>
       </c>
       <c r="G16">
-        <v>2.110669442720306</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>39.77206533520509</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.908630080202381</v>
       </c>
       <c r="J16">
-        <v>7.009506864194777</v>
+        <v>12.42284151676596</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.75767065066633</v>
       </c>
       <c r="L16">
-        <v>5.668819171642138</v>
+        <v>5.966508043303635</v>
       </c>
       <c r="M16">
-        <v>14.29488691711783</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.366405544956995</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.3092019359259</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43659590560072</v>
+        <v>25.19584510689956</v>
       </c>
       <c r="C17">
-        <v>14.73582740886106</v>
+        <v>16.33992688502498</v>
       </c>
       <c r="D17">
-        <v>7.992487627471434</v>
+        <v>3.816128575928428</v>
       </c>
       <c r="E17">
-        <v>6.130597471310023</v>
+        <v>6.921709989875143</v>
       </c>
       <c r="F17">
-        <v>77.88693288354165</v>
+        <v>29.41657928089387</v>
       </c>
       <c r="G17">
-        <v>2.117414259983296</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>39.32929187211684</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.020631494762049</v>
       </c>
       <c r="J17">
-        <v>6.994753292047248</v>
+        <v>12.3835837873022</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.75248464076157</v>
       </c>
       <c r="L17">
-        <v>5.678562518523435</v>
+        <v>5.978201478544172</v>
       </c>
       <c r="M17">
-        <v>14.1256873201866</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.317862885252115</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.06541514174357</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.13840154200585</v>
+        <v>24.88039226161612</v>
       </c>
       <c r="C18">
-        <v>14.51625133591843</v>
+        <v>16.12824295115783</v>
       </c>
       <c r="D18">
-        <v>7.901504084776108</v>
+        <v>3.805704263757407</v>
       </c>
       <c r="E18">
-        <v>6.11250400519094</v>
+        <v>6.930380670104073</v>
       </c>
       <c r="F18">
-        <v>77.11272741491274</v>
+        <v>29.32271897055545</v>
       </c>
       <c r="G18">
-        <v>2.121287917523333</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>39.14498596545353</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.076153019516896</v>
       </c>
       <c r="J18">
-        <v>6.986410920382409</v>
+        <v>12.37559918007856</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.77971379926218</v>
       </c>
       <c r="L18">
-        <v>5.684649806615749</v>
+        <v>5.985153044697004</v>
       </c>
       <c r="M18">
-        <v>14.02971433903437</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.285818439360788</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.92074291659319</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.03742106761714</v>
+        <v>24.77185141092766</v>
       </c>
       <c r="C19">
-        <v>14.44163345671391</v>
+        <v>16.07155014236333</v>
       </c>
       <c r="D19">
-        <v>7.870634629959829</v>
+        <v>3.804692489253634</v>
       </c>
       <c r="E19">
-        <v>6.106402520524885</v>
+        <v>6.932885767967768</v>
       </c>
       <c r="F19">
-        <v>76.85040884821585</v>
+        <v>29.26083451787954</v>
       </c>
       <c r="G19">
-        <v>2.122598780031857</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>39.02971171068098</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.102245404597333</v>
       </c>
       <c r="J19">
-        <v>6.983609823811864</v>
+        <v>12.3623619038104</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.76680132653415</v>
       </c>
       <c r="L19">
-        <v>5.686792219344128</v>
+        <v>5.987366522172735</v>
       </c>
       <c r="M19">
-        <v>13.99744690833137</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.27841338060407</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.87394408328478</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.4917783705664</v>
+        <v>25.25413453410811</v>
       </c>
       <c r="C20">
-        <v>14.77633888295965</v>
+        <v>16.37366325502571</v>
       </c>
       <c r="D20">
-        <v>8.009296911467409</v>
+        <v>3.817214315705554</v>
       </c>
       <c r="E20">
-        <v>6.133958298328001</v>
+        <v>6.92026501059877</v>
       </c>
       <c r="F20">
-        <v>78.03013701687233</v>
+        <v>29.44444332607247</v>
       </c>
       <c r="G20">
-        <v>2.11669693408391</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>39.38165585992937</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.007899579275503</v>
       </c>
       <c r="J20">
-        <v>6.996308704420054</v>
+        <v>12.38876608797415</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.75517760536689</v>
       </c>
       <c r="L20">
-        <v>5.677474924599251</v>
+        <v>5.976967251468595</v>
       </c>
       <c r="M20">
-        <v>14.14355864704356</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.322656882710975</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.09126141456258</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.05466576284959</v>
+        <v>26.81752060994931</v>
       </c>
       <c r="C21">
-        <v>15.88358553186044</v>
+        <v>17.34180041052989</v>
       </c>
       <c r="D21">
-        <v>8.471178021896355</v>
+        <v>3.857763211970532</v>
       </c>
       <c r="E21">
-        <v>6.228528555095825</v>
+        <v>6.879501362435304</v>
       </c>
       <c r="F21">
-        <v>81.98395711818911</v>
+        <v>30.11575740139561</v>
       </c>
       <c r="G21">
-        <v>2.096774458523741</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>40.64501990845285</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.688756954113937</v>
       </c>
       <c r="J21">
-        <v>7.040781611022968</v>
+        <v>12.499355522073</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.75752054804759</v>
       </c>
       <c r="L21">
-        <v>5.652070987201569</v>
+        <v>5.942650729477305</v>
       </c>
       <c r="M21">
-        <v>14.65088041910996</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.470596136013409</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.80246762788352</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.17844601504869</v>
+        <v>27.79804527201051</v>
       </c>
       <c r="C22">
-        <v>16.5965312896341</v>
+        <v>17.92747909776151</v>
       </c>
       <c r="D22">
-        <v>8.770682681980926</v>
+        <v>3.8808723260429</v>
       </c>
       <c r="E22">
-        <v>6.292174796092069</v>
+        <v>6.854480202462224</v>
       </c>
       <c r="F22">
-        <v>84.56506719557841</v>
+        <v>30.62225626631345</v>
       </c>
       <c r="G22">
-        <v>2.08362591300213</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>41.5767148968801</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.531072280023321</v>
       </c>
       <c r="J22">
-        <v>7.07141851213344</v>
+        <v>12.59815961976081</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.81201798996332</v>
       </c>
       <c r="L22">
-        <v>5.640176851583401</v>
+        <v>5.920732783602286</v>
       </c>
       <c r="M22">
-        <v>14.99550432362874</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.563662399885568</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.25090439801281</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.57951680440649</v>
+        <v>27.28011421696304</v>
       </c>
       <c r="C23">
-        <v>16.2168435366985</v>
+        <v>17.59179204220588</v>
       </c>
       <c r="D23">
-        <v>8.611001664578177</v>
+        <v>3.864184224627822</v>
       </c>
       <c r="E23">
-        <v>6.258011959946976</v>
+        <v>6.868504290164795</v>
       </c>
       <c r="F23">
-        <v>83.18741257220236</v>
+        <v>30.40206098866626</v>
       </c>
       <c r="G23">
-        <v>2.090659370487949</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>41.16724661081437</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.573942795763292</v>
       </c>
       <c r="J23">
-        <v>7.054907482799699</v>
+        <v>12.56308947312549</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.82064457250173</v>
       </c>
       <c r="L23">
-        <v>5.646072537471836</v>
+        <v>5.932597645155509</v>
       </c>
       <c r="M23">
-        <v>14.81031523810891</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.508028397120671</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.00881204255216</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.46683100814588</v>
+        <v>25.23023883486463</v>
       </c>
       <c r="C24">
-        <v>14.75802873183649</v>
+        <v>16.31661302628916</v>
       </c>
       <c r="D24">
-        <v>8.001698677655462</v>
+        <v>3.809900330321828</v>
       </c>
       <c r="E24">
-        <v>6.132438418926509</v>
+        <v>6.922137230019724</v>
       </c>
       <c r="F24">
-        <v>77.96539859483678</v>
+        <v>29.51486113144575</v>
       </c>
       <c r="G24">
-        <v>2.117021248876877</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>39.50299815862283</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.994407462909081</v>
       </c>
       <c r="J24">
-        <v>6.995605070534526</v>
+        <v>12.41564034570875</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.81528642587569</v>
       </c>
       <c r="L24">
-        <v>5.677965117216923</v>
+        <v>5.97791815841208</v>
       </c>
       <c r="M24">
-        <v>14.13547497497521</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.311209373267766</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.07303382131282</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.28875753564737</v>
+        <v>22.87742282746042</v>
       </c>
       <c r="C25">
-        <v>13.12506345513275</v>
+        <v>14.8457026692074</v>
       </c>
       <c r="D25">
-        <v>7.3306742669527</v>
+        <v>3.755464969575056</v>
       </c>
       <c r="E25">
-        <v>6.002708042370314</v>
+        <v>6.983616546072987</v>
       </c>
       <c r="F25">
-        <v>72.29466283662899</v>
+        <v>28.62178202344351</v>
       </c>
       <c r="G25">
-        <v>2.145265294230959</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>37.77524739468666</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.466506045096571</v>
       </c>
       <c r="J25">
-        <v>6.937010182466066</v>
+        <v>12.28731252532225</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.85953994665796</v>
       </c>
       <c r="L25">
-        <v>5.730674202009169</v>
+        <v>6.0283073486359</v>
       </c>
       <c r="M25">
-        <v>13.45875232727575</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.109046984775339</v>
       </c>
       <c r="O25">
+        <v>14.0126403395565</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.02665437152293</v>
+        <v>20.98351206945382</v>
       </c>
       <c r="C2">
-        <v>13.60430681858705</v>
+        <v>14.16122658116029</v>
       </c>
       <c r="D2">
-        <v>3.707899431427749</v>
+        <v>3.881008451723354</v>
       </c>
       <c r="E2">
-        <v>7.03404567390679</v>
+        <v>6.954170774499746</v>
       </c>
       <c r="F2">
-        <v>28.15276331169871</v>
+        <v>26.44334345111717</v>
       </c>
       <c r="G2">
-        <v>36.8036702298956</v>
+        <v>33.64729587264922</v>
       </c>
       <c r="I2">
-        <v>3.805330281596173</v>
+        <v>3.559623404824444</v>
       </c>
       <c r="J2">
-        <v>12.26316722396843</v>
+        <v>11.81332833351112</v>
       </c>
       <c r="K2">
-        <v>19.0254391063922</v>
+        <v>17.60368594255076</v>
       </c>
       <c r="L2">
-        <v>6.067787139640137</v>
+        <v>14.00583055260742</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.05600462327622</v>
       </c>
       <c r="N2">
-        <v>6.954251764411584</v>
+        <v>5.974423358011829</v>
       </c>
       <c r="O2">
-        <v>13.17974288075606</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.173465271795782</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.23632105060196</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67798748931206</v>
+        <v>19.62359166832455</v>
       </c>
       <c r="C3">
-        <v>12.74992209201068</v>
+        <v>13.2072461429194</v>
       </c>
       <c r="D3">
-        <v>3.683939684398832</v>
+        <v>3.853043654264239</v>
       </c>
       <c r="E3">
-        <v>7.068985343076702</v>
+        <v>6.993290178229761</v>
       </c>
       <c r="F3">
-        <v>27.79143017622711</v>
+        <v>26.19983347597532</v>
       </c>
       <c r="G3">
-        <v>36.04946854377282</v>
+        <v>33.17781960949302</v>
       </c>
       <c r="I3">
-        <v>4.059586865224621</v>
+        <v>3.778302669667495</v>
       </c>
       <c r="J3">
-        <v>12.23431503489021</v>
+        <v>11.76536111593044</v>
       </c>
       <c r="K3">
-        <v>19.10411845106568</v>
+        <v>17.75892709984</v>
       </c>
       <c r="L3">
-        <v>6.094974367382157</v>
+        <v>14.1582649535628</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.16038060586573</v>
       </c>
       <c r="N3">
-        <v>6.863756133689793</v>
+        <v>5.995638333728914</v>
       </c>
       <c r="O3">
-        <v>12.59881452595909</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.067309911966846</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.625977374296</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.80422398493827</v>
+        <v>18.74029477950682</v>
       </c>
       <c r="C4">
-        <v>12.20048198285314</v>
+        <v>12.59213004237083</v>
       </c>
       <c r="D4">
-        <v>3.670450538444518</v>
+        <v>3.837429306166841</v>
       </c>
       <c r="E4">
-        <v>7.091335379994606</v>
+        <v>7.01833449179623</v>
       </c>
       <c r="F4">
-        <v>27.58288284148913</v>
+        <v>26.06120623952581</v>
       </c>
       <c r="G4">
-        <v>35.60135163509056</v>
+        <v>32.90909830567122</v>
       </c>
       <c r="I4">
-        <v>4.221316206636807</v>
+        <v>3.917791662619394</v>
       </c>
       <c r="J4">
-        <v>12.22224673707179</v>
+        <v>11.7375525160009</v>
       </c>
       <c r="K4">
-        <v>19.160416667021</v>
+        <v>17.85972611784209</v>
       </c>
       <c r="L4">
-        <v>6.112099731133315</v>
+        <v>14.25118287434078</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.24679523671473</v>
       </c>
       <c r="N4">
-        <v>6.811448901444321</v>
+        <v>6.009199684358388</v>
       </c>
       <c r="O4">
-        <v>12.23217662299031</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.00539867959796</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.23911742257333</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.43647886185627</v>
+        <v>18.36795719231706</v>
       </c>
       <c r="C5">
-        <v>11.97916165914069</v>
+        <v>12.34259662091275</v>
       </c>
       <c r="D5">
-        <v>3.666432560302797</v>
+        <v>3.83260586393758</v>
       </c>
       <c r="E5">
-        <v>7.10042775244286</v>
+        <v>7.028611990716628</v>
       </c>
       <c r="F5">
-        <v>27.48673012668659</v>
+        <v>25.99415677442944</v>
       </c>
       <c r="G5">
-        <v>35.39641920210107</v>
+        <v>32.78050547811005</v>
       </c>
       <c r="I5">
-        <v>4.29116932108333</v>
+        <v>3.978868061828379</v>
       </c>
       <c r="J5">
-        <v>12.21382119898404</v>
+        <v>11.72209104719784</v>
       </c>
       <c r="K5">
-        <v>19.17529068354609</v>
+        <v>17.89338216232545</v>
       </c>
       <c r="L5">
-        <v>6.119041727179193</v>
+        <v>14.28088786071201</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.28222634992324</v>
       </c>
       <c r="N5">
-        <v>6.792586538643362</v>
+        <v>6.014793018028847</v>
       </c>
       <c r="O5">
-        <v>12.08184443874206</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.982510116392899</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.07989694190694</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37441931370641</v>
+        <v>18.30508278901754</v>
       </c>
       <c r="C6">
-        <v>11.9528365055541</v>
+        <v>12.31113805375196</v>
       </c>
       <c r="D6">
-        <v>3.667223644571379</v>
+        <v>3.833236873544267</v>
       </c>
       <c r="E6">
-        <v>7.101657458110192</v>
+        <v>7.030107481088607</v>
       </c>
       <c r="F6">
-        <v>27.4532551322317</v>
+        <v>25.96701486840349</v>
       </c>
       <c r="G6">
-        <v>35.33063558873899</v>
+        <v>32.73025414597105</v>
       </c>
       <c r="I6">
-        <v>4.306053185526562</v>
+        <v>3.992809236963862</v>
       </c>
       <c r="J6">
-        <v>12.20653763766416</v>
+        <v>11.71401114734349</v>
       </c>
       <c r="K6">
-        <v>19.16567257712095</v>
+        <v>17.88838323124537</v>
       </c>
       <c r="L6">
-        <v>6.12002360207781</v>
+        <v>14.27605637026594</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.28205670895797</v>
       </c>
       <c r="N6">
-        <v>6.791496496192654</v>
+        <v>6.015649618962713</v>
       </c>
       <c r="O6">
-        <v>12.05844604048843</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.980599749420725</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.05485875653803</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.79845858749128</v>
+        <v>18.73458928300752</v>
       </c>
       <c r="C7">
-        <v>12.22636408288155</v>
+        <v>12.60629259248607</v>
       </c>
       <c r="D7">
-        <v>3.674300079518352</v>
+        <v>3.8448393192867</v>
       </c>
       <c r="E7">
-        <v>7.090668761070162</v>
+        <v>7.017890085398067</v>
       </c>
       <c r="F7">
-        <v>27.53342171752151</v>
+        <v>25.99135960345077</v>
       </c>
       <c r="G7">
-        <v>35.51177237331486</v>
+        <v>32.88573179268952</v>
       </c>
       <c r="I7">
-        <v>4.230750432676933</v>
+        <v>3.929296823126093</v>
       </c>
       <c r="J7">
-        <v>12.20586327740845</v>
+        <v>11.67421834826856</v>
       </c>
       <c r="K7">
-        <v>19.12728319264348</v>
+        <v>17.81807493343425</v>
       </c>
       <c r="L7">
-        <v>6.111731220571953</v>
+        <v>14.21369202374654</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.22136663074281</v>
       </c>
       <c r="N7">
-        <v>6.816598365492782</v>
+        <v>6.008861063963013</v>
       </c>
       <c r="O7">
-        <v>12.2346977596373</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.010066512255313</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.24134947346028</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56997148002228</v>
+        <v>20.5237612982674</v>
       </c>
       <c r="C8">
-        <v>13.35026429992369</v>
+        <v>13.84077487519517</v>
       </c>
       <c r="D8">
-        <v>3.704443345352529</v>
+        <v>3.888149550213674</v>
       </c>
       <c r="E8">
-        <v>7.044921274916274</v>
+        <v>6.966789848343424</v>
       </c>
       <c r="F8">
-        <v>27.96279079558591</v>
+        <v>26.21859405676619</v>
       </c>
       <c r="G8">
-        <v>36.42861189817981</v>
+        <v>33.56843504948317</v>
       </c>
       <c r="I8">
-        <v>3.902780532179918</v>
+        <v>3.649190408403065</v>
       </c>
       <c r="J8">
-        <v>12.23066192093832</v>
+        <v>11.61972355523771</v>
       </c>
       <c r="K8">
-        <v>19.00681939015805</v>
+        <v>17.57511438001794</v>
       </c>
       <c r="L8">
-        <v>6.076563866188433</v>
+        <v>13.99010478352587</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.03251770769827</v>
       </c>
       <c r="N8">
-        <v>6.929382034668754</v>
+        <v>5.980837171450118</v>
       </c>
       <c r="O8">
-        <v>12.9871898569866</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.142536831746302</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.03404485667877</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.68195847305933</v>
+        <v>23.6935120068021</v>
       </c>
       <c r="C9">
-        <v>15.31150848919706</v>
+        <v>16.02270909068783</v>
       </c>
       <c r="D9">
-        <v>3.766602636801698</v>
+        <v>3.965234129538335</v>
       </c>
       <c r="E9">
-        <v>6.963651398129278</v>
+        <v>6.875584165913125</v>
       </c>
       <c r="F9">
-        <v>28.99599153534739</v>
+        <v>26.92222203437317</v>
       </c>
       <c r="G9">
-        <v>38.49208748809166</v>
+        <v>34.99094780646141</v>
       </c>
       <c r="I9">
-        <v>3.288901426193409</v>
+        <v>3.121190472277733</v>
       </c>
       <c r="J9">
-        <v>12.35511782912775</v>
+        <v>11.72607400056742</v>
       </c>
       <c r="K9">
-        <v>18.89784584777537</v>
+        <v>17.24385294206144</v>
       </c>
       <c r="L9">
-        <v>6.011604386336066</v>
+        <v>13.63118641003637</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.91195887833781</v>
       </c>
       <c r="N9">
-        <v>7.166619752189113</v>
+        <v>5.931075556966951</v>
       </c>
       <c r="O9">
-        <v>14.36968408153254</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.4188014698487</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.47813117010456</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.8025808963714</v>
+        <v>25.80461498176743</v>
       </c>
       <c r="C10">
-        <v>16.64590420405164</v>
+        <v>17.4512697358637</v>
       </c>
       <c r="D10">
-        <v>3.820303201288487</v>
+        <v>4.052374992879756</v>
       </c>
       <c r="E10">
-        <v>6.908007677277006</v>
+        <v>6.813548586332392</v>
       </c>
       <c r="F10">
-        <v>29.79937221092437</v>
+        <v>27.34295250123462</v>
       </c>
       <c r="G10">
-        <v>40.03444828624695</v>
+        <v>36.41795126141117</v>
       </c>
       <c r="I10">
-        <v>2.868322007565921</v>
+        <v>2.767305203008672</v>
       </c>
       <c r="J10">
-        <v>12.47039400365318</v>
+        <v>11.54178568261056</v>
       </c>
       <c r="K10">
-        <v>18.84892508824919</v>
+        <v>16.94569444458497</v>
       </c>
       <c r="L10">
-        <v>5.965726347260484</v>
+        <v>13.30013537271053</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.87528050596192</v>
       </c>
       <c r="N10">
-        <v>7.358406082636517</v>
+        <v>5.896348660195976</v>
       </c>
       <c r="O10">
-        <v>15.32737376393729</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.637725818208938</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.47052884074693</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.71981021420669</v>
+        <v>26.70854180770764</v>
       </c>
       <c r="C11">
-        <v>17.26209024910892</v>
+        <v>18.02701581780763</v>
       </c>
       <c r="D11">
-        <v>3.851994713617431</v>
+        <v>4.137933575509675</v>
       </c>
       <c r="E11">
-        <v>6.882635035776286</v>
+        <v>6.786454511580002</v>
       </c>
       <c r="F11">
-        <v>30.10865174179517</v>
+        <v>27.24863005844566</v>
       </c>
       <c r="G11">
-        <v>40.62687948940296</v>
+        <v>37.53075984347484</v>
       </c>
       <c r="I11">
-        <v>2.699743607383409</v>
+        <v>2.637917424378991</v>
       </c>
       <c r="J11">
-        <v>12.50501456258651</v>
+        <v>10.99192850483462</v>
       </c>
       <c r="K11">
-        <v>18.78467522744093</v>
+        <v>16.64307856902272</v>
       </c>
       <c r="L11">
-        <v>5.94500063047255</v>
+        <v>13.02814660925526</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.74114662328417</v>
       </c>
       <c r="N11">
-        <v>7.456709104829219</v>
+        <v>5.880115632975054</v>
       </c>
       <c r="O11">
-        <v>15.75425318818889</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.746288939960013</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.91028696194642</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.06091326901988</v>
+        <v>27.04418564853263</v>
       </c>
       <c r="C12">
-        <v>17.47284292069639</v>
+        <v>18.21404655415639</v>
       </c>
       <c r="D12">
-        <v>3.861045737300663</v>
+        <v>4.172591544787812</v>
       </c>
       <c r="E12">
-        <v>6.873729930672592</v>
+        <v>6.777056951368614</v>
       </c>
       <c r="F12">
-        <v>30.2662988765651</v>
+        <v>27.2205348304692</v>
       </c>
       <c r="G12">
-        <v>40.91987619462846</v>
+        <v>38.08601916437497</v>
       </c>
       <c r="I12">
-        <v>2.628155174565287</v>
+        <v>2.58027321848364</v>
       </c>
       <c r="J12">
-        <v>12.53285513187165</v>
+        <v>10.74725916045356</v>
       </c>
       <c r="K12">
-        <v>18.79082600602828</v>
+        <v>16.53737176301754</v>
       </c>
       <c r="L12">
-        <v>5.937379458706618</v>
+        <v>12.93223366326626</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.69927190909335</v>
       </c>
       <c r="N12">
-        <v>7.490086592425118</v>
+        <v>5.873839348918628</v>
       </c>
       <c r="O12">
-        <v>15.91082349394909</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.783620655424748</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.07153696390294</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.98799972896234</v>
+        <v>26.97244239048464</v>
       </c>
       <c r="C13">
-        <v>17.42389736321727</v>
+        <v>18.17078776183859</v>
       </c>
       <c r="D13">
-        <v>3.858457116074394</v>
+        <v>4.164218021924233</v>
       </c>
       <c r="E13">
-        <v>6.875752311368104</v>
+        <v>6.779142233608552</v>
       </c>
       <c r="F13">
-        <v>30.23986904482912</v>
+        <v>27.23464498971665</v>
       </c>
       <c r="G13">
-        <v>40.86988244430738</v>
+        <v>37.97531959183556</v>
       </c>
       <c r="I13">
-        <v>2.641647655707986</v>
+        <v>2.590427040037028</v>
       </c>
       <c r="J13">
-        <v>12.52952368897101</v>
+        <v>10.80407514958778</v>
       </c>
       <c r="K13">
-        <v>18.79516836662268</v>
+        <v>16.56559682715623</v>
       </c>
       <c r="L13">
-        <v>5.939047711579355</v>
+        <v>12.95664160227613</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.71271545400459</v>
       </c>
       <c r="N13">
-        <v>7.48202728834106</v>
+        <v>5.875160972581512</v>
       </c>
       <c r="O13">
-        <v>15.87661838036957</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.774790299769911</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.03639465555898</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.74811512009785</v>
+        <v>26.73639581522082</v>
       </c>
       <c r="C14">
-        <v>17.27790986113073</v>
+        <v>18.04114011530103</v>
       </c>
       <c r="D14">
-        <v>3.852466791240863</v>
+        <v>4.140393753409091</v>
       </c>
       <c r="E14">
-        <v>6.881946851627609</v>
+        <v>6.785706912808489</v>
       </c>
       <c r="F14">
-        <v>30.12482621075518</v>
+        <v>27.24978552091159</v>
       </c>
       <c r="G14">
-        <v>40.65657800453339</v>
+        <v>37.5801573012518</v>
       </c>
       <c r="I14">
-        <v>2.693036978567937</v>
+        <v>2.632212916943171</v>
       </c>
       <c r="J14">
-        <v>12.50843767682655</v>
+        <v>10.97363727300882</v>
       </c>
       <c r="K14">
-        <v>18.78758776447158</v>
+        <v>16.63672614407777</v>
       </c>
       <c r="L14">
-        <v>5.94438539493385</v>
+        <v>13.0218773715396</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.73959108604112</v>
       </c>
       <c r="N14">
-        <v>7.459083327417794</v>
+        <v>5.879587250925458</v>
       </c>
       <c r="O14">
-        <v>15.76692859521575</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.749022925116268</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.92337796486213</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.59978053143651</v>
+        <v>26.59040746254786</v>
       </c>
       <c r="C15">
-        <v>17.19545493242884</v>
+        <v>17.96716159885842</v>
       </c>
       <c r="D15">
-        <v>3.850072380165321</v>
+        <v>4.127818324701268</v>
       </c>
       <c r="E15">
-        <v>6.885539582349476</v>
+        <v>6.789628221568483</v>
       </c>
       <c r="F15">
-        <v>30.03953279817216</v>
+        <v>27.2419190243788</v>
       </c>
       <c r="G15">
-        <v>40.49994376736167</v>
+        <v>37.32350853509845</v>
       </c>
       <c r="I15">
-        <v>2.728363782987126</v>
+        <v>2.662366400418826</v>
       </c>
       <c r="J15">
-        <v>12.49030601238946</v>
+        <v>11.06711950141207</v>
       </c>
       <c r="K15">
-        <v>18.77185589921944</v>
+        <v>16.66882419305983</v>
       </c>
       <c r="L15">
-        <v>5.947600923767193</v>
+        <v>13.05387581513133</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.74690267196417</v>
       </c>
       <c r="N15">
-        <v>7.446775036354494</v>
+        <v>5.882351024613068</v>
       </c>
       <c r="O15">
-        <v>15.70062476576677</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.734815340018686</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.85487680905523</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.73782532227877</v>
+        <v>25.74098317871398</v>
       </c>
       <c r="C16">
-        <v>16.66913573181946</v>
+        <v>17.47301654121765</v>
       </c>
       <c r="D16">
-        <v>3.828828110384662</v>
+        <v>4.058239233225658</v>
       </c>
       <c r="E16">
-        <v>6.907801655598209</v>
+        <v>6.813990533278458</v>
       </c>
       <c r="F16">
-        <v>29.65089165960702</v>
+        <v>27.22944176960937</v>
       </c>
       <c r="G16">
-        <v>39.77206533520509</v>
+        <v>36.14942896844871</v>
       </c>
       <c r="I16">
-        <v>2.908630080202381</v>
+        <v>2.810161519993875</v>
       </c>
       <c r="J16">
-        <v>12.42284151676596</v>
+        <v>11.53206575638399</v>
       </c>
       <c r="K16">
-        <v>18.75767065066633</v>
+        <v>16.88272882337304</v>
       </c>
       <c r="L16">
-        <v>5.966508043303635</v>
+        <v>13.25859599547642</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.81770084375103</v>
       </c>
       <c r="N16">
-        <v>7.366405544956995</v>
+        <v>5.89776379422089</v>
       </c>
       <c r="O16">
-        <v>15.3092019359259</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.643902142008069</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.45061023819436</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.19584510689956</v>
+        <v>25.20607758898752</v>
       </c>
       <c r="C17">
-        <v>16.33992688502498</v>
+        <v>17.14678627576824</v>
       </c>
       <c r="D17">
-        <v>3.816128575928428</v>
+        <v>4.02446238252876</v>
       </c>
       <c r="E17">
-        <v>6.921709989875143</v>
+        <v>6.829507469468855</v>
       </c>
       <c r="F17">
-        <v>29.41657928089387</v>
+        <v>27.17540101331392</v>
       </c>
       <c r="G17">
-        <v>39.32929187211684</v>
+        <v>35.55432904208861</v>
       </c>
       <c r="I17">
-        <v>3.020631494762049</v>
+        <v>2.903406544059943</v>
       </c>
       <c r="J17">
-        <v>12.3835837873022</v>
+        <v>11.72612031230905</v>
       </c>
       <c r="K17">
-        <v>18.75248464076157</v>
+        <v>16.98819603109194</v>
       </c>
       <c r="L17">
-        <v>5.978201478544172</v>
+        <v>13.3657390622033</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.84441604175744</v>
       </c>
       <c r="N17">
-        <v>7.317862885252115</v>
+        <v>5.907121479832536</v>
       </c>
       <c r="O17">
-        <v>15.06541514174357</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.588505426137695</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>15.19823318861017</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.88039226161612</v>
+        <v>24.89438170342045</v>
       </c>
       <c r="C18">
-        <v>16.12824295115783</v>
+        <v>16.93144929413689</v>
       </c>
       <c r="D18">
-        <v>3.805704263757407</v>
+        <v>4.00484031393252</v>
       </c>
       <c r="E18">
-        <v>6.930380670104073</v>
+        <v>6.839004333882801</v>
       </c>
       <c r="F18">
-        <v>29.32271897055545</v>
+        <v>27.16339943091411</v>
       </c>
       <c r="G18">
-        <v>39.14498596545353</v>
+        <v>35.31971872487888</v>
       </c>
       <c r="I18">
-        <v>3.076153019516896</v>
+        <v>2.946876840591077</v>
       </c>
       <c r="J18">
-        <v>12.37559918007856</v>
+        <v>11.81566674873565</v>
       </c>
       <c r="K18">
-        <v>18.77971379926218</v>
+        <v>17.06438094468039</v>
       </c>
       <c r="L18">
-        <v>5.985153044697004</v>
+        <v>13.43861354677392</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.87364116516303</v>
       </c>
       <c r="N18">
-        <v>7.285818439360788</v>
+        <v>5.912370700931369</v>
       </c>
       <c r="O18">
-        <v>14.92074291659319</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.552741052695558</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.04864822797462</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.77185141092766</v>
+        <v>24.78714134154319</v>
       </c>
       <c r="C19">
-        <v>16.07155014236333</v>
+        <v>16.87178282688671</v>
       </c>
       <c r="D19">
-        <v>3.804692489253634</v>
+        <v>4.001207296428813</v>
       </c>
       <c r="E19">
-        <v>6.932885767967768</v>
+        <v>6.841922400793789</v>
       </c>
       <c r="F19">
-        <v>29.26083451787954</v>
+        <v>27.12908784073714</v>
       </c>
       <c r="G19">
-        <v>39.02971171068098</v>
+        <v>35.19910276915297</v>
       </c>
       <c r="I19">
-        <v>3.102245404597333</v>
+        <v>2.970277861138448</v>
       </c>
       <c r="J19">
-        <v>12.3623619038104</v>
+        <v>11.83073364788481</v>
       </c>
       <c r="K19">
-        <v>18.76680132653415</v>
+        <v>17.06967820939206</v>
       </c>
       <c r="L19">
-        <v>5.987366522172735</v>
+        <v>13.44818770795072</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.86762670894049</v>
       </c>
       <c r="N19">
-        <v>7.27841338060407</v>
+        <v>5.914205230003044</v>
       </c>
       <c r="O19">
-        <v>14.87394408328478</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.54379605605129</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.99994575958221</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.25413453410811</v>
+        <v>25.26363040001435</v>
       </c>
       <c r="C20">
-        <v>16.37366325502571</v>
+        <v>17.18091620127854</v>
       </c>
       <c r="D20">
-        <v>3.817214315705554</v>
+        <v>4.027481956533975</v>
       </c>
       <c r="E20">
-        <v>6.92026501059877</v>
+        <v>6.827871048120102</v>
       </c>
       <c r="F20">
-        <v>29.44444332607247</v>
+        <v>27.18565913133792</v>
       </c>
       <c r="G20">
-        <v>39.38165585992937</v>
+        <v>35.61796659996425</v>
       </c>
       <c r="I20">
-        <v>3.007899579275503</v>
+        <v>2.892486941044651</v>
       </c>
       <c r="J20">
-        <v>12.38876608797415</v>
+        <v>11.70994329152456</v>
       </c>
       <c r="K20">
-        <v>18.75517760536689</v>
+        <v>16.97984218321859</v>
       </c>
       <c r="L20">
-        <v>5.976967251468595</v>
+        <v>13.35644064348332</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.84369467146147</v>
       </c>
       <c r="N20">
-        <v>7.322656882710975</v>
+        <v>5.906122474273732</v>
       </c>
       <c r="O20">
-        <v>15.09126141456258</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.594068440883002</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.22503921989154</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.81752060994931</v>
+        <v>26.80412952520317</v>
       </c>
       <c r="C21">
-        <v>17.34180041052989</v>
+        <v>18.07180098564975</v>
       </c>
       <c r="D21">
-        <v>3.857763211970532</v>
+        <v>4.164705170826013</v>
       </c>
       <c r="E21">
-        <v>6.879501362435304</v>
+        <v>6.783668575287334</v>
       </c>
       <c r="F21">
-        <v>30.11575740139561</v>
+        <v>27.1237552514953</v>
       </c>
       <c r="G21">
-        <v>40.64501990845285</v>
+        <v>37.8241908220043</v>
       </c>
       <c r="I21">
-        <v>2.688756954113937</v>
+        <v>2.634650769942254</v>
       </c>
       <c r="J21">
-        <v>12.499355522073</v>
+        <v>10.76018845959094</v>
       </c>
       <c r="K21">
-        <v>18.75752054804759</v>
+        <v>16.54365957860952</v>
       </c>
       <c r="L21">
-        <v>5.942650729477305</v>
+        <v>12.95238269039391</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.6722733095008</v>
       </c>
       <c r="N21">
-        <v>7.470596136013409</v>
+        <v>5.877992186416395</v>
       </c>
       <c r="O21">
-        <v>15.80246762788352</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.760584041190306</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.95957981598213</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.79804527201051</v>
+        <v>27.76874376820512</v>
       </c>
       <c r="C22">
-        <v>17.92747909776151</v>
+        <v>18.60037542761599</v>
       </c>
       <c r="D22">
-        <v>3.8808723260429</v>
+        <v>4.259005925379649</v>
       </c>
       <c r="E22">
-        <v>6.854480202462224</v>
+        <v>6.757566901132353</v>
       </c>
       <c r="F22">
-        <v>30.62225626631345</v>
+        <v>27.11371871257818</v>
       </c>
       <c r="G22">
-        <v>41.5767148968801</v>
+        <v>39.44955415947258</v>
       </c>
       <c r="I22">
-        <v>2.531072280023321</v>
+        <v>2.564585698370661</v>
       </c>
       <c r="J22">
-        <v>12.59815961976081</v>
+        <v>10.13519632855401</v>
       </c>
       <c r="K22">
-        <v>18.81201798996332</v>
+        <v>16.2799189896251</v>
       </c>
       <c r="L22">
-        <v>5.920732783602286</v>
+        <v>12.70578152533923</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.58956045896568</v>
       </c>
       <c r="N22">
-        <v>7.563662399885568</v>
+        <v>5.860036771200158</v>
       </c>
       <c r="O22">
-        <v>16.25090439801281</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.865375032426472</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.42104542817823</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.28011421696304</v>
+        <v>27.25968602432246</v>
       </c>
       <c r="C23">
-        <v>17.59179204220588</v>
+        <v>18.31591714774466</v>
       </c>
       <c r="D23">
-        <v>3.864184224627822</v>
+        <v>4.19369213764851</v>
       </c>
       <c r="E23">
-        <v>6.868504290164795</v>
+        <v>6.771527529314166</v>
       </c>
       <c r="F23">
-        <v>30.40206098866626</v>
+        <v>27.22469708093094</v>
       </c>
       <c r="G23">
-        <v>41.16724661081437</v>
+        <v>38.51826757507724</v>
       </c>
       <c r="I23">
-        <v>2.573942795763292</v>
+        <v>2.533870742487004</v>
       </c>
       <c r="J23">
-        <v>12.56308947312549</v>
+        <v>10.58616490802246</v>
       </c>
       <c r="K23">
-        <v>18.82064457250173</v>
+        <v>16.48566722675442</v>
       </c>
       <c r="L23">
-        <v>5.932597645155509</v>
+        <v>12.88188739855415</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.68647144544575</v>
       </c>
       <c r="N23">
-        <v>7.508028397120671</v>
+        <v>5.869647353695498</v>
       </c>
       <c r="O23">
-        <v>16.00881204255216</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.804329131590991</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.17262777088173</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.23023883486463</v>
+        <v>25.23988167750043</v>
       </c>
       <c r="C24">
-        <v>16.31661302628916</v>
+        <v>17.12551891578225</v>
       </c>
       <c r="D24">
-        <v>3.809900330321828</v>
+        <v>4.019237670107183</v>
       </c>
       <c r="E24">
-        <v>6.922137230019724</v>
+        <v>6.829489952589253</v>
       </c>
       <c r="F24">
-        <v>29.51486113144575</v>
+        <v>27.2560888325455</v>
       </c>
       <c r="G24">
-        <v>39.50299815862283</v>
+        <v>35.72204963436342</v>
       </c>
       <c r="I24">
-        <v>2.994407462909081</v>
+        <v>2.874746573999014</v>
       </c>
       <c r="J24">
-        <v>12.41564034570875</v>
+        <v>11.74279453545104</v>
       </c>
       <c r="K24">
-        <v>18.81528642587569</v>
+        <v>17.0356261541915</v>
       </c>
       <c r="L24">
-        <v>5.97791815841208</v>
+        <v>13.39852360609019</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.88539980067331</v>
       </c>
       <c r="N24">
-        <v>7.311209373267766</v>
+        <v>5.906377372380465</v>
       </c>
       <c r="O24">
-        <v>15.07303382131282</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.582992486542074</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.20692963290711</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.87742282746042</v>
+        <v>22.86625992525682</v>
       </c>
       <c r="C25">
-        <v>14.8457026692074</v>
+        <v>15.51156241533039</v>
       </c>
       <c r="D25">
-        <v>3.755464969575056</v>
+        <v>3.944652524194924</v>
       </c>
       <c r="E25">
-        <v>6.983616546072987</v>
+        <v>6.898425003080405</v>
       </c>
       <c r="F25">
-        <v>28.62178202344351</v>
+        <v>26.6806664347282</v>
       </c>
       <c r="G25">
-        <v>37.77524739468666</v>
+        <v>34.37480008292512</v>
       </c>
       <c r="I25">
-        <v>3.466506045096571</v>
+        <v>3.277536395029734</v>
       </c>
       <c r="J25">
-        <v>12.28731252532225</v>
+        <v>11.73648102479071</v>
       </c>
       <c r="K25">
-        <v>18.85953994665796</v>
+        <v>17.29512703199741</v>
       </c>
       <c r="L25">
-        <v>6.0283073486359</v>
+        <v>13.70352220986072</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.89893229999443</v>
       </c>
       <c r="N25">
-        <v>7.109046984775339</v>
+        <v>5.944353517123142</v>
       </c>
       <c r="O25">
-        <v>14.0126403395565</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.350152754527974</v>
       </c>
       <c r="Q25">
+        <v>14.10559783622782</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
